--- a/reports e riferimenti/MSQ.xlsx
+++ b/reports e riferimenti/MSQ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/michele_tosi_students_uniroma2_eu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/michele_tosi_students_uniroma2_eu/Documents/Desktop/PMCSN/AMA-ROMA_PMCSN/reports e riferimenti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96754257-0EBA-48EA-AA7F-78DE3853AF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{96754257-0EBA-48EA-AA7F-78DE3853AF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E997F3F-78B9-40AE-9DF2-B0FCFDC2CB6A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{0A54CB1D-96A8-4DA3-B11B-B6CFD14F36F1}"/>
   </bookViews>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -483,14 +483,14 @@
       </c>
       <c r="D3">
         <f>+B3/B2</f>
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3">
         <f>1/D3</f>
-        <v>6.6666666666666671E-3</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -499,7 +499,7 @@
       </c>
       <c r="B4">
         <f>(B1*D1)/F3</f>
-        <v>0.24749999999999994</v>
+        <v>9.8999999999999991E-2</v>
       </c>
       <c r="K4" t="s">
         <v>8</v>
@@ -511,7 +511,7 @@
       </c>
       <c r="B5">
         <f>(+SUM(K5:Z5)+(B2*B4)^B2/(FACT(B2)*(1-B4)))^(-1)</f>
-        <v>0.37106362058362646</v>
+        <v>0.37157669061446941</v>
       </c>
       <c r="K5">
         <f>($B$2*$B$4)^K6/FACT(K6)</f>
@@ -519,39 +519,39 @@
       </c>
       <c r="L5">
         <f>IF(L6&lt;&gt;0,(($B$2*$B$4)^L6/(FACT(L6))),0)</f>
-        <v>0.98999999999999977</v>
+        <v>0.98999999999999988</v>
       </c>
       <c r="M5">
         <f t="shared" ref="M5:Z5" si="0">IF(M6&lt;&gt;0,(($B$2*$B$4)^M6/(FACT(M6))),0)</f>
-        <v>0.49004999999999976</v>
+        <v>0.49004999999999987</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>0.1617164999999999</v>
+        <v>0.16171649999999996</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.0024833749999982E-2</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.9249170824999948E-3</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.307611318612499E-3</v>
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.8493360077519627E-4</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2885533095930537E-5</v>
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5174086405523585E-6</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
@@ -584,7 +584,7 @@
       </c>
       <c r="B6">
         <f>+(B2*B4)^4*B5/(FACT(B2)*(1-B4))</f>
-        <v>1.9736557773465398E-2</v>
+        <v>1.0916952406804987E-7</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="L6:N6" si="1">+IF(AND($B$2&gt;L6+1,L6+1&lt;&gt;1),L6+1,0)</f>
+        <f t="shared" ref="M6:N6" si="1">+IF(AND($B$2&gt;L6+1,L6+1&lt;&gt;1),L6+1,0)</f>
         <v>2</v>
       </c>
       <c r="N6">
@@ -602,27 +602,27 @@
       </c>
       <c r="O6">
         <f>+IF(AND($B$2&gt;N6+1,N6+1&lt;&gt;1),N6+1,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P6">
         <f t="shared" ref="P6:Z6" si="2">+IF(AND($B$2&gt;O6+1,O6+1&lt;&gt;1),O6+1,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U6">
         <f t="shared" si="2"/>
@@ -655,14 +655,14 @@
       </c>
       <c r="B7">
         <f>+(B6*D3)/(1-B4)</f>
-        <v>3.9341975628170225</v>
+        <v>7.2698906149644746E-6</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7">
         <f>+B7+B3</f>
-        <v>603.93419756281708</v>
+        <v>600.0000072698906</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -671,14 +671,14 @@
       </c>
       <c r="B8">
         <f>+B7*B1*D1</f>
-        <v>6.4914259786480874E-3</v>
+        <v>1.1995319514691381E-8</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8">
         <f>+D7*B1*D1</f>
-        <v>0.99649142597864804</v>
+        <v>0.9900000119953194</v>
       </c>
     </row>
   </sheetData>

--- a/reports e riferimenti/MSQ.xlsx
+++ b/reports e riferimenti/MSQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/michele_tosi_students_uniroma2_eu/Documents/Desktop/PMCSN/AMA-ROMA_PMCSN/reports e riferimenti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{96754257-0EBA-48EA-AA7F-78DE3853AF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E997F3F-78B9-40AE-9DF2-B0FCFDC2CB6A}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{96754257-0EBA-48EA-AA7F-78DE3853AF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{126EFA60-3CC9-4D82-9B88-E470FE9F5020}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{0A54CB1D-96A8-4DA3-B11B-B6CFD14F36F1}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{0A54CB1D-96A8-4DA3-B11B-B6CFD14F36F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="29">
   <si>
     <t>lambda</t>
   </si>
@@ -78,13 +78,58 @@
   </si>
   <si>
     <t>E[Ns]</t>
+  </si>
+  <si>
+    <t>P_1</t>
+  </si>
+  <si>
+    <t>P_2</t>
+  </si>
+  <si>
+    <t>P_3</t>
+  </si>
+  <si>
+    <t>P_4</t>
+  </si>
+  <si>
+    <t>P_5</t>
+  </si>
+  <si>
+    <t>P_6</t>
+  </si>
+  <si>
+    <t>P_7</t>
+  </si>
+  <si>
+    <t>ACCETTAZIONE</t>
+  </si>
+  <si>
+    <t>SCARICO</t>
+  </si>
+  <si>
+    <t>GOMMISTA</t>
+  </si>
+  <si>
+    <t>CARROZZERIA</t>
+  </si>
+  <si>
+    <t>ELETTRAUTO</t>
+  </si>
+  <si>
+    <t>CARPENTERIA</t>
+  </si>
+  <si>
+    <t>MECCANICA</t>
+  </si>
+  <si>
+    <t>CHECKOUT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +142,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,6 +188,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95AA9892-4947-49C9-AA79-F2477F733ADC}">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,241 +502,1937 @@
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="26" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>0.3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>600</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
-        <f>+B3/B2</f>
-        <v>60</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D4">
+        <f>+B4/B3</f>
+        <v>150</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3">
-        <f>1/D3</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <f>(B1*D1)/F3</f>
-        <v>9.8999999999999991E-2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
+      <c r="F4">
+        <f>1/D4</f>
+        <v>6.6666666666666671E-3</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <f>(+SUM(K5:Z5)+(B2*B4)^B2/(FACT(B2)*(1-B4)))^(-1)</f>
-        <v>0.37157669061446941</v>
-      </c>
-      <c r="K5">
-        <f>($B$2*$B$4)^K6/FACT(K6)</f>
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <f>IF(L6&lt;&gt;0,(($B$2*$B$4)^L6/(FACT(L6))),0)</f>
-        <v>0.98999999999999988</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ref="M5:Z5" si="0">IF(M6&lt;&gt;0,(($B$2*$B$4)^M6/(FACT(M6))),0)</f>
-        <v>0.49004999999999987</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>0.16171649999999996</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
-        <v>4.0024833749999982E-2</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>7.9249170824999948E-3</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>1.307611318612499E-3</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="0"/>
-        <v>1.8493360077519627E-4</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
-        <v>2.2885533095930537E-5</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
-        <v>2.5174086405523585E-6</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(B2*D2)/F4</f>
+        <v>0.82499999999999984</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <f>+(B2*B4)^4*B5/(FACT(B2)*(1-B4))</f>
-        <v>1.0916952406804987E-7</v>
+        <f>(+SUM(K6:Z6)+(B3*B5)^B3/(FACT(B3)*(1-B5)))^(-1)</f>
+        <v>2.2742409720755728E-2</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <f>($B$3*$B$5)^K7/FACT(K7)</f>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <f>IF(L7&lt;&gt;0,(($B3*$B5)^L7/(FACT(L7))),0)</f>
+        <v>3.2999999999999994</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:N6" si="1">+IF(AND($B$2&gt;L6+1,L6+1&lt;&gt;1),L6+1,0)</f>
-        <v>2</v>
+        <f>IF(M7&lt;&gt;0,(($B3*$B5)^M7/(FACT(M7))),0)</f>
+        <v>5.4449999999999976</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" ref="N6:Z6" si="0">IF(N7&lt;&gt;0,(($B3*$B5)^N7/(FACT(N7))),0)</f>
+        <v>5.989499999999996</v>
       </c>
       <c r="O6">
-        <f>+IF(AND($B$2&gt;N6+1,N6+1&lt;&gt;1),N6+1,0)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:Z6" si="2">+IF(AND($B$2&gt;O6+1,O6+1&lt;&gt;1),O6+1,0)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R6">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="S6">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="T6">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="U6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <f>+(B6*D3)/(1-B4)</f>
-        <v>7.2698906149644746E-6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <f>+B7+B3</f>
-        <v>600.0000072698906</v>
+        <f>+(B3*B5)^B3*B6/(FACT(B3)*(1-B5))</f>
+        <v>0.64215955424876925</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f>+IF(AND($B3&gt;L7+1,L7+1&lt;&gt;1),L7+1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:Z7" si="1">+IF(AND($B3&gt;M7+1,M7+1&lt;&gt;1),M7+1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <f>+(B7*D4)/(1-B5)</f>
+        <v>550.42247507037314</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <f>+B8+B4</f>
+        <v>1150.4224750703731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <f>+B7*B1*D1</f>
-        <v>1.1995319514691381E-8</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9">
+        <f>+B8*B2*D2</f>
+        <v>3.0273236128870522</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
-        <f>+D7*B1*D1</f>
-        <v>0.9900000119953194</v>
-      </c>
+      <c r="D9">
+        <f>+D8*B2*D2</f>
+        <v>6.327323612887052</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>600</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16" si="2">+B16/B15</f>
+        <v>150</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16" si="3">1/D16</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17" si="4">(B14*D14)/F16</f>
+        <v>0.24749999999999994</v>
+      </c>
+      <c r="K17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18" si="5">(+SUM(K18:Z18)+(B15*B17)^B15/(FACT(B15)*(1-B17)))^(-1)</f>
+        <v>0.37106362058362646</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18" si="6">($B$3*$B$5)^K19/FACT(K19)</f>
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:M18" si="7">IF(L19&lt;&gt;0,(($B15*$B17)^L19/(FACT(L19))),0)</f>
+        <v>0.98999999999999977</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="7"/>
+        <v>0.49004999999999976</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ref="N18" si="8">IF(N19&lt;&gt;0,(($B15*$B17)^N19/(FACT(N19))),0)</f>
+        <v>0.1617164999999999</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18" si="9">IF(O19&lt;&gt;0,(($B15*$B17)^O19/(FACT(O19))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18" si="10">IF(P19&lt;&gt;0,(($B15*$B17)^P19/(FACT(P19))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ref="Q18" si="11">IF(Q19&lt;&gt;0,(($B15*$B17)^Q19/(FACT(Q19))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" ref="R18" si="12">IF(R19&lt;&gt;0,(($B15*$B17)^R19/(FACT(R19))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ref="S18" si="13">IF(S19&lt;&gt;0,(($B15*$B17)^S19/(FACT(S19))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" ref="T18" si="14">IF(T19&lt;&gt;0,(($B15*$B17)^T19/(FACT(T19))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ref="U18" si="15">IF(U19&lt;&gt;0,(($B15*$B17)^U19/(FACT(U19))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f t="shared" ref="V18" si="16">IF(V19&lt;&gt;0,(($B15*$B17)^V19/(FACT(V19))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <f t="shared" ref="W18" si="17">IF(W19&lt;&gt;0,(($B15*$B17)^W19/(FACT(W19))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f t="shared" ref="X18" si="18">IF(X19&lt;&gt;0,(($B15*$B17)^X19/(FACT(X19))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" ref="Y18" si="19">IF(Y19&lt;&gt;0,(($B15*$B17)^Y19/(FACT(Y19))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" ref="Z18" si="20">IF(Z19&lt;&gt;0,(($B15*$B17)^Z19/(FACT(Z19))),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <f>+(B15*B17)^B15*B18/(FACT(B15)*(1-B17))</f>
+        <v>1.9736557773465398E-2</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19:Z19" si="21">+IF(AND($B15&gt;L19+1,L19+1&lt;&gt;1),L19+1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20" si="22">+(B19*D16)/(1-B17)</f>
+        <v>3.9341975628170225</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20" si="23">+B20+B16</f>
+        <v>603.93419756281708</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21" si="24">+B20*B14*D14</f>
+        <v>6.4914259786480874E-3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21" si="25">+D20*B14*D14</f>
+        <v>0.99649142597864804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <f>+B14*D14</f>
+        <v>1.6499999999999998E-3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>5400</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28" si="26">+B28/B27</f>
+        <v>1800</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28" si="27">1/D28</f>
+        <v>5.5555555555555556E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29" si="28">(B26*D26)/F28</f>
+        <v>0.89099999999999979</v>
+      </c>
+      <c r="K29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30" si="29">(+SUM(K30:Z30)+(B27*B29)^B27/(FACT(B27)*(1-B29)))^(-1)</f>
+        <v>2.7436420186509831E-2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30" si="30">($B$3*$B$5)^K31/FACT(K31)</f>
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ref="L30:M30" si="31">IF(L31&lt;&gt;0,(($B27*$B29)^L31/(FACT(L31))),0)</f>
+        <v>2.6729999999999992</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="31"/>
+        <v>3.5724644999999979</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ref="N30" si="32">IF(N31&lt;&gt;0,(($B27*$B29)^N31/(FACT(N31))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ref="O30" si="33">IF(O31&lt;&gt;0,(($B27*$B29)^O31/(FACT(O31))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ref="P30" si="34">IF(P31&lt;&gt;0,(($B27*$B29)^P31/(FACT(P31))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ref="Q30" si="35">IF(Q31&lt;&gt;0,(($B27*$B29)^Q31/(FACT(Q31))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" ref="R30" si="36">IF(R31&lt;&gt;0,(($B27*$B29)^R31/(FACT(R31))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" ref="S30" si="37">IF(S31&lt;&gt;0,(($B27*$B29)^S31/(FACT(S31))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" ref="T30" si="38">IF(T31&lt;&gt;0,(($B27*$B29)^T31/(FACT(T31))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" ref="U30" si="39">IF(U31&lt;&gt;0,(($B27*$B29)^U31/(FACT(U31))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <f t="shared" ref="V30" si="40">IF(V31&lt;&gt;0,(($B27*$B29)^V31/(FACT(V31))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <f t="shared" ref="W30" si="41">IF(W31&lt;&gt;0,(($B27*$B29)^W31/(FACT(W31))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f t="shared" ref="X30" si="42">IF(X31&lt;&gt;0,(($B27*$B29)^X31/(FACT(X31))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" ref="Y30" si="43">IF(Y31&lt;&gt;0,(($B27*$B29)^Y31/(FACT(Y31))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" ref="Z30" si="44">IF(Z31&lt;&gt;0,(($B27*$B29)^Z31/(FACT(Z31))),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <f>+(B27*B29)^B27*B30/(FACT(B27)*(1-B29))</f>
+        <v>0.80121039153155982</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ref="M31:Z31" si="45">+IF(AND($B27&gt;L31+1,L31+1&lt;&gt;1),L31+1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32" si="46">+(B31*D28)/(1-B29)</f>
+        <v>13230.997291346835</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32" si="47">+B32+B28</f>
+        <v>18630.997291346837</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="48">+B32*B26*D26</f>
+        <v>6.5493436592166825</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33" si="49">+D32*B26*D26</f>
+        <v>9.2223436592166834</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <f>+B26</f>
+        <v>1.6499999999999998E-3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>5400</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="50">+B40/B39</f>
+        <v>1800</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ref="F40" si="51">1/D40</f>
+        <v>5.5555555555555556E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41" si="52">(B38*D38)/F40</f>
+        <v>0.26729999999999998</v>
+      </c>
+      <c r="K41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42" si="53">(+SUM(K42:Z42)+(B39*B41)^B39/(FACT(B39)*(1-B41)))^(-1)</f>
+        <v>0.44628556001530151</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ref="K42" si="54">($B$3*$B$5)^K43/FACT(K43)</f>
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ref="L42:M42" si="55">IF(L43&lt;&gt;0,(($B39*$B41)^L43/(FACT(L43))),0)</f>
+        <v>0.80189999999999995</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="55"/>
+        <v>0.32152180499999994</v>
+      </c>
+      <c r="N42">
+        <f t="shared" ref="N42" si="56">IF(N43&lt;&gt;0,(($B39*$B41)^N43/(FACT(N43))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ref="O42" si="57">IF(O43&lt;&gt;0,(($B39*$B41)^O43/(FACT(O43))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" ref="P42" si="58">IF(P43&lt;&gt;0,(($B39*$B41)^P43/(FACT(P43))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" ref="Q42" si="59">IF(Q43&lt;&gt;0,(($B39*$B41)^Q43/(FACT(Q43))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <f t="shared" ref="R42" si="60">IF(R43&lt;&gt;0,(($B39*$B41)^R43/(FACT(R43))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f t="shared" ref="S42" si="61">IF(S43&lt;&gt;0,(($B39*$B41)^S43/(FACT(S43))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <f t="shared" ref="T42" si="62">IF(T43&lt;&gt;0,(($B39*$B41)^T43/(FACT(T43))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <f t="shared" ref="U42" si="63">IF(U43&lt;&gt;0,(($B39*$B41)^U43/(FACT(U43))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <f t="shared" ref="V42" si="64">IF(V43&lt;&gt;0,(($B39*$B41)^V43/(FACT(V43))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <f t="shared" ref="W42" si="65">IF(W43&lt;&gt;0,(($B39*$B41)^W43/(FACT(W43))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f t="shared" ref="X42" si="66">IF(X43&lt;&gt;0,(($B39*$B41)^X43/(FACT(X43))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" ref="Y42" si="67">IF(Y43&lt;&gt;0,(($B39*$B41)^Y43/(FACT(Y43))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" ref="Z42" si="68">IF(Z43&lt;&gt;0,(($B39*$B41)^Z43/(FACT(Z43))),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <f>+(B39*B41)^B39*B42/(FACT(B39)*(1-B41))</f>
+        <v>5.2347510606872927E-2</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ref="M43:Z43" si="69">+IF(AND($B39&gt;L43+1,L43+1&lt;&gt;1),L43+1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44" si="70">+(B43*D40)/(1-B41)</f>
+        <v>128.6004082057749</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44" si="71">+B44+B40</f>
+        <v>5528.6004082057752</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45" si="72">+B44*B38*D38</f>
+        <v>1.9097160618557568E-2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="73">+D44*B38*D38</f>
+        <v>0.82099716061855743</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <f>+B26</f>
+        <v>1.6499999999999998E-3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>5400</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ref="D52" si="74">+B52/B51</f>
+        <v>5400</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ref="F52" si="75">1/D52</f>
+        <v>1.8518518518518518E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53" si="76">(B50*D50)/F52</f>
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="K53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ref="B54" si="77">(+SUM(K54:Z54)+(B51*B53)^B51/(FACT(B51)*(1-B53)))^(-1)</f>
+        <v>9.935111870271135E-2</v>
+      </c>
+      <c r="K54">
+        <f t="shared" ref="K54" si="78">($B$3*$B$5)^K55/FACT(K55)</f>
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <f t="shared" ref="L54:M54" si="79">IF(L55&lt;&gt;0,(($B51*$B53)^L55/(FACT(L55))),0)</f>
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <f t="shared" ref="N54" si="80">IF(N55&lt;&gt;0,(($B51*$B53)^N55/(FACT(N55))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f t="shared" ref="O54" si="81">IF(O55&lt;&gt;0,(($B51*$B53)^O55/(FACT(O55))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <f t="shared" ref="P54" si="82">IF(P55&lt;&gt;0,(($B51*$B53)^P55/(FACT(P55))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" ref="Q54" si="83">IF(Q55&lt;&gt;0,(($B51*$B53)^Q55/(FACT(Q55))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <f t="shared" ref="R54" si="84">IF(R55&lt;&gt;0,(($B51*$B53)^R55/(FACT(R55))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <f t="shared" ref="S54" si="85">IF(S55&lt;&gt;0,(($B51*$B53)^S55/(FACT(S55))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <f t="shared" ref="T54" si="86">IF(T55&lt;&gt;0,(($B51*$B53)^T55/(FACT(T55))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <f t="shared" ref="U54" si="87">IF(U55&lt;&gt;0,(($B51*$B53)^U55/(FACT(U55))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <f t="shared" ref="V54" si="88">IF(V55&lt;&gt;0,(($B51*$B53)^V55/(FACT(V55))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <f t="shared" ref="W54" si="89">IF(W55&lt;&gt;0,(($B51*$B53)^W55/(FACT(W55))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <f t="shared" ref="X54" si="90">IF(X55&lt;&gt;0,(($B51*$B53)^X55/(FACT(X55))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" ref="Y54" si="91">IF(Y55&lt;&gt;0,(($B51*$B53)^Y55/(FACT(Y55))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" ref="Z54" si="92">IF(Z55&lt;&gt;0,(($B51*$B53)^Z55/(FACT(Z55))),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <f>+(B51*B53)^B51*B54/(FACT(B51)*(1-B53))</f>
+        <v>0.8121270345331727</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <f t="shared" ref="M55:Z55" si="93">+IF(AND($B51&gt;L55+1,L55+1&lt;&gt;1),L55+1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56" si="94">+(B55*D52)/(1-B53)</f>
+        <v>40233.81638971682</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ref="D56" si="95">+B56+B52</f>
+        <v>45633.81638971682</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57" si="96">+B56*B50*D50</f>
+        <v>6.6385797043032744</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ref="D57" si="97">+D56*B50*D50</f>
+        <v>7.5295797043032753</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <f>+B26</f>
+        <v>1.6499999999999998E-3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>5400</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ref="D64" si="98">+B64/B63</f>
+        <v>1800</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ref="F64" si="99">1/D64</f>
+        <v>5.5555555555555556E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ref="B65" si="100">(B62*D62)/F64</f>
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="K65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66" si="101">(+SUM(K66:Z66)+(B63*B65)^B63/(FACT(B63)*(1-B65)))^(-1)</f>
+        <v>0.14941554966889367</v>
+      </c>
+      <c r="K66">
+        <f t="shared" ref="K66" si="102">($B$3*$B$5)^K67/FACT(K67)</f>
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <f t="shared" ref="L66:M66" si="103">IF(L67&lt;&gt;0,(($B63*$B65)^L67/(FACT(L67))),0)</f>
+        <v>1.782</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="103"/>
+        <v>1.5877620000000001</v>
+      </c>
+      <c r="N66">
+        <f t="shared" ref="N66" si="104">IF(N67&lt;&gt;0,(($B63*$B65)^N67/(FACT(N67))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <f t="shared" ref="O66" si="105">IF(O67&lt;&gt;0,(($B63*$B65)^O67/(FACT(O67))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <f t="shared" ref="P66" si="106">IF(P67&lt;&gt;0,(($B63*$B65)^P67/(FACT(P67))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" ref="Q66" si="107">IF(Q67&lt;&gt;0,(($B63*$B65)^Q67/(FACT(Q67))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <f t="shared" ref="R66" si="108">IF(R67&lt;&gt;0,(($B63*$B65)^R67/(FACT(R67))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <f t="shared" ref="S66" si="109">IF(S67&lt;&gt;0,(($B63*$B65)^S67/(FACT(S67))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <f t="shared" ref="T66" si="110">IF(T67&lt;&gt;0,(($B63*$B65)^T67/(FACT(T67))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <f t="shared" ref="U66" si="111">IF(U67&lt;&gt;0,(($B63*$B65)^U67/(FACT(U67))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <f t="shared" ref="V66" si="112">IF(V67&lt;&gt;0,(($B63*$B65)^V67/(FACT(V67))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <f t="shared" ref="W66" si="113">IF(W67&lt;&gt;0,(($B63*$B65)^W67/(FACT(W67))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <f t="shared" ref="X66" si="114">IF(X67&lt;&gt;0,(($B63*$B65)^X67/(FACT(X67))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" ref="Y66" si="115">IF(Y67&lt;&gt;0,(($B63*$B65)^Y67/(FACT(Y67))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" ref="Z66" si="116">IF(Z67&lt;&gt;0,(($B63*$B65)^Z67/(FACT(Z67))),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <f>+(B63*B65)^B63*B66/(FACT(B63)*(1-B65))</f>
+        <v>0.34708960884775586</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:Z67" si="117">+IF(AND($B63&gt;L67+1,L67+1&lt;&gt;1),L67+1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68" si="118">+(B67*D64)/(1-B65)</f>
+        <v>1538.8209259260111</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68" si="119">+B68+B64</f>
+        <v>6938.8209259260111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ref="B69" si="120">+B68*B62*D62</f>
+        <v>0.50781090555558361</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ref="D69" si="121">+D68*B62*D62</f>
+        <v>2.2898109055555835</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <f>+B26</f>
+        <v>1.6499999999999998E-3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>5400</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ref="D76" si="122">+B76/B75</f>
+        <v>1800</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ref="F76" si="123">1/D76</f>
+        <v>5.5555555555555556E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ref="B77" si="124">(B74*D74)/F76</f>
+        <v>0.89099999999999979</v>
+      </c>
+      <c r="K77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ref="B78" si="125">(+SUM(K78:Z78)+(B75*B77)^B75/(FACT(B75)*(1-B77)))^(-1)</f>
+        <v>2.7436420186509831E-2</v>
+      </c>
+      <c r="K78">
+        <f t="shared" ref="K78" si="126">($B$3*$B$5)^K79/FACT(K79)</f>
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <f t="shared" ref="L78:M78" si="127">IF(L79&lt;&gt;0,(($B75*$B77)^L79/(FACT(L79))),0)</f>
+        <v>2.6729999999999992</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="127"/>
+        <v>3.5724644999999979</v>
+      </c>
+      <c r="N78">
+        <f t="shared" ref="N78" si="128">IF(N79&lt;&gt;0,(($B75*$B77)^N79/(FACT(N79))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <f t="shared" ref="O78" si="129">IF(O79&lt;&gt;0,(($B75*$B77)^O79/(FACT(O79))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <f t="shared" ref="P78" si="130">IF(P79&lt;&gt;0,(($B75*$B77)^P79/(FACT(P79))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" ref="Q78" si="131">IF(Q79&lt;&gt;0,(($B75*$B77)^Q79/(FACT(Q79))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <f t="shared" ref="R78" si="132">IF(R79&lt;&gt;0,(($B75*$B77)^R79/(FACT(R79))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <f t="shared" ref="S78" si="133">IF(S79&lt;&gt;0,(($B75*$B77)^S79/(FACT(S79))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <f t="shared" ref="T78" si="134">IF(T79&lt;&gt;0,(($B75*$B77)^T79/(FACT(T79))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <f t="shared" ref="U78" si="135">IF(U79&lt;&gt;0,(($B75*$B77)^U79/(FACT(U79))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <f t="shared" ref="V78" si="136">IF(V79&lt;&gt;0,(($B75*$B77)^V79/(FACT(V79))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <f t="shared" ref="W78" si="137">IF(W79&lt;&gt;0,(($B75*$B77)^W79/(FACT(W79))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <f t="shared" ref="X78" si="138">IF(X79&lt;&gt;0,(($B75*$B77)^X79/(FACT(X79))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" ref="Y78" si="139">IF(Y79&lt;&gt;0,(($B75*$B77)^Y79/(FACT(Y79))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <f t="shared" ref="Z78" si="140">IF(Z79&lt;&gt;0,(($B75*$B77)^Z79/(FACT(Z79))),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79">
+        <f>+(B75*B77)^B75*B78/(FACT(B75)*(1-B77))</f>
+        <v>0.80121039153155982</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <f t="shared" ref="M79:Z79" si="141">+IF(AND($B75&gt;L79+1,L79+1&lt;&gt;1),L79+1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ref="B80" si="142">+(B79*D76)/(1-B77)</f>
+        <v>13230.997291346835</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ref="D80" si="143">+B80+B76</f>
+        <v>18630.997291346837</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ref="B81" si="144">+B80*B74*D74</f>
+        <v>6.5493436592166825</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ref="D81" si="145">+D80*B74*D74</f>
+        <v>9.2223436592166834</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <f>+B2</f>
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <v>900</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ref="D88" si="146">+B88/B87</f>
+        <v>900</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ref="F88" si="147">1/D88</f>
+        <v>1.1111111111111111E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ref="B89" si="148">(B86*D86)/F88</f>
+        <v>0.49500000000000005</v>
+      </c>
+      <c r="K89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ref="B90" si="149">(+SUM(K90:Z90)+(B87*B89)^B87/(FACT(B87)*(1-B89)))^(-1)</f>
+        <v>0.40400808016160317</v>
+      </c>
+      <c r="K90">
+        <f t="shared" ref="K90" si="150">($B$3*$B$5)^K91/FACT(K91)</f>
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <f t="shared" ref="L90:M90" si="151">IF(L91&lt;&gt;0,(($B87*$B89)^L91/(FACT(L91))),0)</f>
+        <v>0.49500000000000005</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <f t="shared" ref="N90" si="152">IF(N91&lt;&gt;0,(($B87*$B89)^N91/(FACT(N91))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <f t="shared" ref="O90" si="153">IF(O91&lt;&gt;0,(($B87*$B89)^O91/(FACT(O91))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <f t="shared" ref="P90" si="154">IF(P91&lt;&gt;0,(($B87*$B89)^P91/(FACT(P91))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" ref="Q90" si="155">IF(Q91&lt;&gt;0,(($B87*$B89)^Q91/(FACT(Q91))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <f t="shared" ref="R90" si="156">IF(R91&lt;&gt;0,(($B87*$B89)^R91/(FACT(R91))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <f t="shared" ref="S90" si="157">IF(S91&lt;&gt;0,(($B87*$B89)^S91/(FACT(S91))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <f t="shared" ref="T90" si="158">IF(T91&lt;&gt;0,(($B87*$B89)^T91/(FACT(T91))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <f t="shared" ref="U90" si="159">IF(U91&lt;&gt;0,(($B87*$B89)^U91/(FACT(U91))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <f t="shared" ref="V90" si="160">IF(V91&lt;&gt;0,(($B87*$B89)^V91/(FACT(V91))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <f t="shared" ref="W90" si="161">IF(W91&lt;&gt;0,(($B87*$B89)^W91/(FACT(W91))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <f t="shared" ref="X90" si="162">IF(X91&lt;&gt;0,(($B87*$B89)^X91/(FACT(X91))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <f t="shared" ref="Y90" si="163">IF(Y91&lt;&gt;0,(($B87*$B89)^Y91/(FACT(Y91))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <f t="shared" ref="Z90" si="164">IF(Z91&lt;&gt;0,(($B87*$B89)^Z91/(FACT(Z91))),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91">
+        <f>+(B87*B89)^B87*B90/(FACT(B87)*(1-B89))</f>
+        <v>0.39600792015840325</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <f t="shared" ref="M91:Z91" si="165">+IF(AND($B87&gt;L91+1,L91+1&lt;&gt;1),L91+1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ref="B92" si="166">+(B91*D88)/(1-B89)</f>
+        <v>705.75668939121385</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ref="D92" si="167">+B92+B88</f>
+        <v>1605.756689391214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ref="B93" si="168">+B92*B86*D86</f>
+        <v>0.3881661791651676</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ref="D93" si="169">+D92*B86*D86</f>
+        <v>0.88316617916516771</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/reports e riferimenti/MSQ.xlsx
+++ b/reports e riferimenti/MSQ.xlsx
@@ -1,52 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/michele_tosi_students_uniroma2_eu/Documents/Desktop/PMCSN/AMA-ROMA_PMCSN/reports e riferimenti/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{96754257-0EBA-48EA-AA7F-78DE3853AF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{126EFA60-3CC9-4D82-9B88-E470FE9F5020}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{0A54CB1D-96A8-4DA3-B11B-B6CFD14F36F1}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>SCARICO</t>
+  </si>
   <si>
     <t>lambda</t>
   </si>
   <si>
-    <t>numero serventi</t>
-  </si>
-  <si>
     <t>probabilità</t>
   </si>
   <si>
+    <t xml:space="preserve">numero serventi</t>
+  </si>
+  <si>
     <t>E[S_i]</t>
   </si>
   <si>
@@ -59,12 +39,12 @@
     <t>ρ</t>
   </si>
   <si>
+    <t xml:space="preserve">termini sommatoria</t>
+  </si>
+  <si>
     <t>P_0</t>
   </si>
   <si>
-    <t>termini sommatoria</t>
-  </si>
-  <si>
     <t>P_Q</t>
   </si>
   <si>
@@ -80,99 +60,163 @@
     <t>E[Ns]</t>
   </si>
   <si>
+    <t>ACCETTAZIONE</t>
+  </si>
+  <si>
     <t>P_1</t>
   </si>
   <si>
+    <t>GOMMISTA</t>
+  </si>
+  <si>
     <t>P_2</t>
   </si>
   <si>
+    <t>CARROZZERIA</t>
+  </si>
+  <si>
     <t>P_3</t>
   </si>
   <si>
+    <t>ELETTRAUTO</t>
+  </si>
+  <si>
     <t>P_4</t>
   </si>
   <si>
+    <t>CARPENTERIA</t>
+  </si>
+  <si>
     <t>P_5</t>
   </si>
   <si>
+    <t>MECCANICA</t>
+  </si>
+  <si>
     <t>P_6</t>
   </si>
   <si>
+    <t>CHECKOUT</t>
+  </si>
+  <si>
     <t>P_7</t>
-  </si>
-  <si>
-    <t>ACCETTAZIONE</t>
-  </si>
-  <si>
-    <t>SCARICO</t>
-  </si>
-  <si>
-    <t>GOMMISTA</t>
-  </si>
-  <si>
-    <t>CARROZZERIA</t>
-  </si>
-  <si>
-    <t>ELETTRAUTO</t>
-  </si>
-  <si>
-    <t>CARPENTERIA</t>
-  </si>
-  <si>
-    <t>MECCANICA</t>
-  </si>
-  <si>
-    <t>CHECKOUT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="13.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="11.000000"/>
+      <color theme="4" tint="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.000000"/>
+      <color theme="4" tint="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="11">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="5" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="3" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -183,19 +227,295 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -237,108 +557,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -346,7 +572,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -372,7 +598,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -424,16 +650,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -449,7 +687,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -480,91 +718,84 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95AA9892-4947-49C9-AA79-F2477F733ADC}">
-  <dimension ref="A1:Z105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView zoomScale="71" workbookViewId="0">
+      <selection activeCell="D87" activeCellId="0" sqref="D87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="26" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="20.28125"/>
+    <col customWidth="1" min="2" max="2" width="9.6640625"/>
+    <col customWidth="1" min="3" max="3" width="13.140625"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" width="12.5546875"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" width="9.109375"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" width="9.109375"/>
+    <col bestFit="1" customWidth="1" min="12" max="12" width="13.109375"/>
+    <col bestFit="1" customWidth="1" min="13" max="18" width="12.77734375"/>
+    <col bestFit="1" customWidth="1" min="19" max="20" width="14.6640625"/>
+    <col bestFit="1" customWidth="1" min="21" max="26" width="12.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="1" ht="17.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="C2" t="s">
+        <v>0.0054999999999999997</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>600</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D4">
         <f>+B4/B3</f>
         <v>150</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="F4">
         <f>1/D4</f>
-        <v>6.6666666666666671E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
+        <v>0.0066666666666666671</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
         <f>(B2*D2)/F4</f>
         <v>0.82499999999999984</v>
       </c>
@@ -572,13 +803,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
         <f>(+SUM(K6:Z6)+(B3*B5)^B3/(FACT(B3)*(1-B5)))^(-1)</f>
-        <v>2.2742409720755728E-2</v>
+        <v>0.022742409720755728</v>
       </c>
       <c r="K6">
         <f>($B$3*$B$5)^K7/FACT(K7)</f>
@@ -645,9 +876,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
         <f>+(B3*B5)^B3*B6/(FACT(B3)*(1-B5))</f>
@@ -716,179 +947,179 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6">
         <f>+(B7*D4)/(1-B5)</f>
         <v>550.42247507037314</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6">
         <f>+B8+B4</f>
         <v>1150.4224750703731</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6">
         <f>+B8*B2*D2</f>
         <v>3.0273236128870522</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6">
         <f>+D8*B2*D2</f>
         <v>6.327323612887052</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>0</v>
+    <row r="13" ht="17.25">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="C14" t="s">
+        <v>0.0054999999999999997</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>1</v>
+        <v>0.29999999999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>3</v>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B16">
         <v>600</v>
       </c>
-      <c r="C16" t="s">
-        <v>4</v>
+      <c r="C16" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16" si="2">+B16/B15</f>
+        <f>+B16/B15</f>
         <v>150</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>5</v>
+      <c r="E16" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16" si="3">1/D16</f>
-        <v>6.6666666666666671E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ref="B17" si="4">(B14*D14)/F16</f>
+        <f t="shared" ref="F16:F79" si="2">1/D16</f>
+        <v>0.0066666666666666671</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6">
+        <f>(B14*D14)/F16</f>
         <v>0.24749999999999994</v>
       </c>
       <c r="K17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B18">
-        <f t="shared" ref="B18" si="5">(+SUM(K18:Z18)+(B15*B17)^B15/(FACT(B15)*(1-B17)))^(-1)</f>
+        <f>(+SUM(K18:Z18)+(B15*B17)^B15/(FACT(B15)*(1-B17)))^(-1)</f>
         <v>0.37106362058362646</v>
       </c>
       <c r="K18">
-        <f t="shared" ref="K18" si="6">($B$3*$B$5)^K19/FACT(K19)</f>
+        <f t="shared" ref="K18:K81" si="3">($B$3*$B$5)^K19/FACT(K19)</f>
         <v>1</v>
       </c>
       <c r="L18">
-        <f t="shared" ref="L18:M18" si="7">IF(L19&lt;&gt;0,(($B15*$B17)^L19/(FACT(L19))),0)</f>
+        <f t="shared" ref="L18:M81" si="4">IF(L19&lt;&gt;0,(($B15*$B17)^L19/(FACT(L19))),0)</f>
         <v>0.98999999999999977</v>
       </c>
       <c r="M18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.49004999999999976</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18" si="8">IF(N19&lt;&gt;0,(($B15*$B17)^N19/(FACT(N19))),0)</f>
+        <f>IF(N19&lt;&gt;0,(($B15*$B17)^N19/(FACT(N19))),0)</f>
         <v>0.1617164999999999</v>
       </c>
       <c r="O18">
-        <f t="shared" ref="O18" si="9">IF(O19&lt;&gt;0,(($B15*$B17)^O19/(FACT(O19))),0)</f>
+        <f>IF(O19&lt;&gt;0,(($B15*$B17)^O19/(FACT(O19))),0)</f>
         <v>0</v>
       </c>
       <c r="P18">
-        <f t="shared" ref="P18" si="10">IF(P19&lt;&gt;0,(($B15*$B17)^P19/(FACT(P19))),0)</f>
+        <f>IF(P19&lt;&gt;0,(($B15*$B17)^P19/(FACT(P19))),0)</f>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f t="shared" ref="Q18" si="11">IF(Q19&lt;&gt;0,(($B15*$B17)^Q19/(FACT(Q19))),0)</f>
+        <f>IF(Q19&lt;&gt;0,(($B15*$B17)^Q19/(FACT(Q19))),0)</f>
         <v>0</v>
       </c>
       <c r="R18">
-        <f t="shared" ref="R18" si="12">IF(R19&lt;&gt;0,(($B15*$B17)^R19/(FACT(R19))),0)</f>
+        <f>IF(R19&lt;&gt;0,(($B15*$B17)^R19/(FACT(R19))),0)</f>
         <v>0</v>
       </c>
       <c r="S18">
-        <f t="shared" ref="S18" si="13">IF(S19&lt;&gt;0,(($B15*$B17)^S19/(FACT(S19))),0)</f>
+        <f>IF(S19&lt;&gt;0,(($B15*$B17)^S19/(FACT(S19))),0)</f>
         <v>0</v>
       </c>
       <c r="T18">
-        <f t="shared" ref="T18" si="14">IF(T19&lt;&gt;0,(($B15*$B17)^T19/(FACT(T19))),0)</f>
+        <f>IF(T19&lt;&gt;0,(($B15*$B17)^T19/(FACT(T19))),0)</f>
         <v>0</v>
       </c>
       <c r="U18">
-        <f t="shared" ref="U18" si="15">IF(U19&lt;&gt;0,(($B15*$B17)^U19/(FACT(U19))),0)</f>
+        <f>IF(U19&lt;&gt;0,(($B15*$B17)^U19/(FACT(U19))),0)</f>
         <v>0</v>
       </c>
       <c r="V18">
-        <f t="shared" ref="V18" si="16">IF(V19&lt;&gt;0,(($B15*$B17)^V19/(FACT(V19))),0)</f>
+        <f>IF(V19&lt;&gt;0,(($B15*$B17)^V19/(FACT(V19))),0)</f>
         <v>0</v>
       </c>
       <c r="W18">
-        <f t="shared" ref="W18" si="17">IF(W19&lt;&gt;0,(($B15*$B17)^W19/(FACT(W19))),0)</f>
+        <f>IF(W19&lt;&gt;0,(($B15*$B17)^W19/(FACT(W19))),0)</f>
         <v>0</v>
       </c>
       <c r="X18">
-        <f t="shared" ref="X18" si="18">IF(X19&lt;&gt;0,(($B15*$B17)^X19/(FACT(X19))),0)</f>
+        <f>IF(X19&lt;&gt;0,(($B15*$B17)^X19/(FACT(X19))),0)</f>
         <v>0</v>
       </c>
       <c r="Y18">
-        <f t="shared" ref="Y18" si="19">IF(Y19&lt;&gt;0,(($B15*$B17)^Y19/(FACT(Y19))),0)</f>
+        <f>IF(Y19&lt;&gt;0,(($B15*$B17)^Y19/(FACT(Y19))),0)</f>
         <v>0</v>
       </c>
       <c r="Z18">
-        <f t="shared" ref="Z18" si="20">IF(Z19&lt;&gt;0,(($B15*$B17)^Z19/(FACT(Z19))),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>9</v>
+        <f>IF(Z19&lt;&gt;0,(($B15*$B17)^Z19/(FACT(Z19))),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B19">
         <f>+(B15*B17)^B15*B18/(FACT(B15)*(1-B17))</f>
-        <v>1.9736557773465398E-2</v>
+        <v>0.019736557773465398</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -897,232 +1128,232 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <f t="shared" ref="M19:Z19" si="21">+IF(AND($B15&gt;L19+1,L19+1&lt;&gt;1),L19+1,0)</f>
+        <f t="shared" ref="M19:Z19" si="5">+IF(AND($B15&gt;L19+1,L19+1&lt;&gt;1),L19+1,0)</f>
         <v>2</v>
       </c>
       <c r="N19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="O19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20">
-        <f t="shared" ref="B20" si="22">+(B19*D16)/(1-B17)</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="6">
+        <f>+(B19*D16)/(1-B17)</f>
         <v>3.9341975628170225</v>
       </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ref="D20" si="23">+B20+B16</f>
+      <c r="C20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="6">
+        <f>+B20+B16</f>
         <v>603.93419756281708</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21">
-        <f t="shared" ref="B21" si="24">+B20*B14*D14</f>
-        <v>6.4914259786480874E-3</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="21">
+      <c r="A21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D21">
-        <f t="shared" ref="D21" si="25">+D20*B14*D14</f>
+      <c r="B21" s="6">
+        <f>+B20*B14*D14</f>
+        <v>0.0064914259786480874</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="6">
+        <f>+D20*B14*D14</f>
         <v>0.99649142597864804</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>0</v>
+    <row r="25" ht="17.25">
+      <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" ht="17.25">
+      <c r="A26" s="9" t="s">
+        <v>1</v>
       </c>
       <c r="B26">
         <f>+B14*D14</f>
-        <v>1.6499999999999998E-3</v>
-      </c>
-      <c r="C26" t="s">
+        <v>0.0016499999999999998</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>1</v>
+        <v>0.29999999999999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>3</v>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B28">
         <v>5400</v>
       </c>
-      <c r="C28" t="s">
-        <v>4</v>
+      <c r="C28" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28" si="26">+B28/B27</f>
+        <f>+B28/B27</f>
         <v>1800</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>5</v>
+      <c r="E28" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28" si="27">1/D28</f>
-        <v>5.5555555555555556E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29">
-        <f t="shared" ref="B29" si="28">(B26*D26)/F28</f>
+        <f t="shared" si="2"/>
+        <v>0.00055555555555555556</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="6">
+        <f>(B26*D26)/F28</f>
         <v>0.89099999999999979</v>
       </c>
       <c r="K29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>15</v>
+    <row r="30">
+      <c r="A30" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30" si="29">(+SUM(K30:Z30)+(B27*B29)^B27/(FACT(B27)*(1-B29)))^(-1)</f>
-        <v>2.7436420186509831E-2</v>
+        <f>(+SUM(K30:Z30)+(B27*B29)^B27/(FACT(B27)*(1-B29)))^(-1)</f>
+        <v>0.027436420186509831</v>
       </c>
       <c r="K30">
-        <f t="shared" ref="K30" si="30">($B$3*$B$5)^K31/FACT(K31)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L30">
-        <f t="shared" ref="L30:M30" si="31">IF(L31&lt;&gt;0,(($B27*$B29)^L31/(FACT(L31))),0)</f>
+        <f t="shared" si="4"/>
         <v>2.6729999999999992</v>
       </c>
       <c r="M30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="4"/>
         <v>3.5724644999999979</v>
       </c>
       <c r="N30">
-        <f t="shared" ref="N30" si="32">IF(N31&lt;&gt;0,(($B27*$B29)^N31/(FACT(N31))),0)</f>
+        <f>IF(N31&lt;&gt;0,(($B27*$B29)^N31/(FACT(N31))),0)</f>
         <v>0</v>
       </c>
       <c r="O30">
-        <f t="shared" ref="O30" si="33">IF(O31&lt;&gt;0,(($B27*$B29)^O31/(FACT(O31))),0)</f>
+        <f>IF(O31&lt;&gt;0,(($B27*$B29)^O31/(FACT(O31))),0)</f>
         <v>0</v>
       </c>
       <c r="P30">
-        <f t="shared" ref="P30" si="34">IF(P31&lt;&gt;0,(($B27*$B29)^P31/(FACT(P31))),0)</f>
+        <f>IF(P31&lt;&gt;0,(($B27*$B29)^P31/(FACT(P31))),0)</f>
         <v>0</v>
       </c>
       <c r="Q30">
-        <f t="shared" ref="Q30" si="35">IF(Q31&lt;&gt;0,(($B27*$B29)^Q31/(FACT(Q31))),0)</f>
+        <f>IF(Q31&lt;&gt;0,(($B27*$B29)^Q31/(FACT(Q31))),0)</f>
         <v>0</v>
       </c>
       <c r="R30">
-        <f t="shared" ref="R30" si="36">IF(R31&lt;&gt;0,(($B27*$B29)^R31/(FACT(R31))),0)</f>
+        <f>IF(R31&lt;&gt;0,(($B27*$B29)^R31/(FACT(R31))),0)</f>
         <v>0</v>
       </c>
       <c r="S30">
-        <f t="shared" ref="S30" si="37">IF(S31&lt;&gt;0,(($B27*$B29)^S31/(FACT(S31))),0)</f>
+        <f>IF(S31&lt;&gt;0,(($B27*$B29)^S31/(FACT(S31))),0)</f>
         <v>0</v>
       </c>
       <c r="T30">
-        <f t="shared" ref="T30" si="38">IF(T31&lt;&gt;0,(($B27*$B29)^T31/(FACT(T31))),0)</f>
+        <f>IF(T31&lt;&gt;0,(($B27*$B29)^T31/(FACT(T31))),0)</f>
         <v>0</v>
       </c>
       <c r="U30">
-        <f t="shared" ref="U30" si="39">IF(U31&lt;&gt;0,(($B27*$B29)^U31/(FACT(U31))),0)</f>
+        <f>IF(U31&lt;&gt;0,(($B27*$B29)^U31/(FACT(U31))),0)</f>
         <v>0</v>
       </c>
       <c r="V30">
-        <f t="shared" ref="V30" si="40">IF(V31&lt;&gt;0,(($B27*$B29)^V31/(FACT(V31))),0)</f>
+        <f>IF(V31&lt;&gt;0,(($B27*$B29)^V31/(FACT(V31))),0)</f>
         <v>0</v>
       </c>
       <c r="W30">
-        <f t="shared" ref="W30" si="41">IF(W31&lt;&gt;0,(($B27*$B29)^W31/(FACT(W31))),0)</f>
+        <f>IF(W31&lt;&gt;0,(($B27*$B29)^W31/(FACT(W31))),0)</f>
         <v>0</v>
       </c>
       <c r="X30">
-        <f t="shared" ref="X30" si="42">IF(X31&lt;&gt;0,(($B27*$B29)^X31/(FACT(X31))),0)</f>
+        <f>IF(X31&lt;&gt;0,(($B27*$B29)^X31/(FACT(X31))),0)</f>
         <v>0</v>
       </c>
       <c r="Y30">
-        <f t="shared" ref="Y30" si="43">IF(Y31&lt;&gt;0,(($B27*$B29)^Y31/(FACT(Y31))),0)</f>
+        <f>IF(Y31&lt;&gt;0,(($B27*$B29)^Y31/(FACT(Y31))),0)</f>
         <v>0</v>
       </c>
       <c r="Z30">
-        <f t="shared" ref="Z30" si="44">IF(Z31&lt;&gt;0,(($B27*$B29)^Z31/(FACT(Z31))),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>9</v>
+        <f>IF(Z31&lt;&gt;0,(($B27*$B29)^Z31/(FACT(Z31))),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B31">
         <f>+(B27*B29)^B27*B30/(FACT(B27)*(1-B29))</f>
@@ -1135,236 +1366,236 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <f t="shared" ref="M31:Z31" si="45">+IF(AND($B27&gt;L31+1,L31+1&lt;&gt;1),L31+1,0)</f>
+        <f t="shared" ref="M31:Z31" si="6">+IF(AND($B27&gt;L31+1,L31+1&lt;&gt;1),L31+1,0)</f>
         <v>2</v>
       </c>
       <c r="N31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32">
-        <f t="shared" ref="B32" si="46">+(B31*D28)/(1-B29)</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="6">
+        <f>+(B31*D28)/(1-B29)</f>
         <v>13230.997291346835</v>
       </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32">
-        <f t="shared" ref="D32" si="47">+B32+B28</f>
+      <c r="C32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="6">
+        <f>+B32+B28</f>
         <v>18630.997291346837</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33">
-        <f t="shared" ref="B33" si="48">+B32*B26*D26</f>
+    <row r="33">
+      <c r="A33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="6">
+        <f>+B32*B26*D26</f>
         <v>6.5493436592166825</v>
       </c>
-      <c r="C33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33">
-        <f t="shared" ref="D33" si="49">+D32*B26*D26</f>
+      <c r="C33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="6">
+        <f>+D32*B26*D26</f>
         <v>9.2223436592166834</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>0</v>
+    <row r="37" ht="17.25">
+      <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B38">
         <f>+B26</f>
-        <v>1.6499999999999998E-3</v>
-      </c>
-      <c r="C38" t="s">
+        <v>0.0016499999999999998</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D38">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>1</v>
+        <v>0.089999999999999997</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>3</v>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B40">
         <v>5400</v>
       </c>
-      <c r="C40" t="s">
-        <v>4</v>
+      <c r="C40" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40" si="50">+B40/B39</f>
+        <f>+B40/B39</f>
         <v>1800</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>5</v>
+      <c r="E40" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="F40">
-        <f t="shared" ref="F40" si="51">1/D40</f>
-        <v>5.5555555555555556E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41">
-        <f t="shared" ref="B41" si="52">(B38*D38)/F40</f>
+        <f t="shared" si="2"/>
+        <v>0.00055555555555555556</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="6">
+        <f>(B38*D38)/F40</f>
         <v>0.26729999999999998</v>
       </c>
       <c r="K41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>16</v>
+    <row r="42">
+      <c r="A42" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B42">
-        <f t="shared" ref="B42" si="53">(+SUM(K42:Z42)+(B39*B41)^B39/(FACT(B39)*(1-B41)))^(-1)</f>
+        <f>(+SUM(K42:Z42)+(B39*B41)^B39/(FACT(B39)*(1-B41)))^(-1)</f>
         <v>0.44628556001530151</v>
       </c>
       <c r="K42">
-        <f t="shared" ref="K42" si="54">($B$3*$B$5)^K43/FACT(K43)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L42">
-        <f t="shared" ref="L42:M42" si="55">IF(L43&lt;&gt;0,(($B39*$B41)^L43/(FACT(L43))),0)</f>
+        <f t="shared" si="4"/>
         <v>0.80189999999999995</v>
       </c>
       <c r="M42">
-        <f t="shared" si="55"/>
+        <f t="shared" si="4"/>
         <v>0.32152180499999994</v>
       </c>
       <c r="N42">
-        <f t="shared" ref="N42" si="56">IF(N43&lt;&gt;0,(($B39*$B41)^N43/(FACT(N43))),0)</f>
+        <f>IF(N43&lt;&gt;0,(($B39*$B41)^N43/(FACT(N43))),0)</f>
         <v>0</v>
       </c>
       <c r="O42">
-        <f t="shared" ref="O42" si="57">IF(O43&lt;&gt;0,(($B39*$B41)^O43/(FACT(O43))),0)</f>
+        <f>IF(O43&lt;&gt;0,(($B39*$B41)^O43/(FACT(O43))),0)</f>
         <v>0</v>
       </c>
       <c r="P42">
-        <f t="shared" ref="P42" si="58">IF(P43&lt;&gt;0,(($B39*$B41)^P43/(FACT(P43))),0)</f>
+        <f>IF(P43&lt;&gt;0,(($B39*$B41)^P43/(FACT(P43))),0)</f>
         <v>0</v>
       </c>
       <c r="Q42">
-        <f t="shared" ref="Q42" si="59">IF(Q43&lt;&gt;0,(($B39*$B41)^Q43/(FACT(Q43))),0)</f>
+        <f>IF(Q43&lt;&gt;0,(($B39*$B41)^Q43/(FACT(Q43))),0)</f>
         <v>0</v>
       </c>
       <c r="R42">
-        <f t="shared" ref="R42" si="60">IF(R43&lt;&gt;0,(($B39*$B41)^R43/(FACT(R43))),0)</f>
+        <f>IF(R43&lt;&gt;0,(($B39*$B41)^R43/(FACT(R43))),0)</f>
         <v>0</v>
       </c>
       <c r="S42">
-        <f t="shared" ref="S42" si="61">IF(S43&lt;&gt;0,(($B39*$B41)^S43/(FACT(S43))),0)</f>
+        <f>IF(S43&lt;&gt;0,(($B39*$B41)^S43/(FACT(S43))),0)</f>
         <v>0</v>
       </c>
       <c r="T42">
-        <f t="shared" ref="T42" si="62">IF(T43&lt;&gt;0,(($B39*$B41)^T43/(FACT(T43))),0)</f>
+        <f>IF(T43&lt;&gt;0,(($B39*$B41)^T43/(FACT(T43))),0)</f>
         <v>0</v>
       </c>
       <c r="U42">
-        <f t="shared" ref="U42" si="63">IF(U43&lt;&gt;0,(($B39*$B41)^U43/(FACT(U43))),0)</f>
+        <f>IF(U43&lt;&gt;0,(($B39*$B41)^U43/(FACT(U43))),0)</f>
         <v>0</v>
       </c>
       <c r="V42">
-        <f t="shared" ref="V42" si="64">IF(V43&lt;&gt;0,(($B39*$B41)^V43/(FACT(V43))),0)</f>
+        <f>IF(V43&lt;&gt;0,(($B39*$B41)^V43/(FACT(V43))),0)</f>
         <v>0</v>
       </c>
       <c r="W42">
-        <f t="shared" ref="W42" si="65">IF(W43&lt;&gt;0,(($B39*$B41)^W43/(FACT(W43))),0)</f>
+        <f>IF(W43&lt;&gt;0,(($B39*$B41)^W43/(FACT(W43))),0)</f>
         <v>0</v>
       </c>
       <c r="X42">
-        <f t="shared" ref="X42" si="66">IF(X43&lt;&gt;0,(($B39*$B41)^X43/(FACT(X43))),0)</f>
+        <f>IF(X43&lt;&gt;0,(($B39*$B41)^X43/(FACT(X43))),0)</f>
         <v>0</v>
       </c>
       <c r="Y42">
-        <f t="shared" ref="Y42" si="67">IF(Y43&lt;&gt;0,(($B39*$B41)^Y43/(FACT(Y43))),0)</f>
+        <f>IF(Y43&lt;&gt;0,(($B39*$B41)^Y43/(FACT(Y43))),0)</f>
         <v>0</v>
       </c>
       <c r="Z42">
-        <f t="shared" ref="Z42" si="68">IF(Z43&lt;&gt;0,(($B39*$B41)^Z43/(FACT(Z43))),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>9</v>
+        <f>IF(Z43&lt;&gt;0,(($B39*$B41)^Z43/(FACT(Z43))),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B43">
         <f>+(B39*B41)^B39*B42/(FACT(B39)*(1-B41))</f>
-        <v>5.2347510606872927E-2</v>
+        <v>0.052347510606872927</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -1373,232 +1604,232 @@
         <v>1</v>
       </c>
       <c r="M43">
-        <f t="shared" ref="M43:Z43" si="69">+IF(AND($B39&gt;L43+1,L43+1&lt;&gt;1),L43+1,0)</f>
+        <f t="shared" ref="M43:Z43" si="7">+IF(AND($B39&gt;L43+1,L43+1&lt;&gt;1),L43+1,0)</f>
         <v>2</v>
       </c>
       <c r="N43">
-        <f t="shared" si="69"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" si="69"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P43">
-        <f t="shared" si="69"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="69"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R43">
-        <f t="shared" si="69"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S43">
-        <f t="shared" si="69"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T43">
-        <f t="shared" si="69"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U43">
-        <f t="shared" si="69"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V43">
-        <f t="shared" si="69"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W43">
-        <f t="shared" si="69"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X43">
-        <f t="shared" si="69"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="69"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44">
-        <f t="shared" ref="B44" si="70">+(B43*D40)/(1-B41)</f>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="6">
+        <f>+(B43*D40)/(1-B41)</f>
         <v>128.6004082057749</v>
       </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44">
-        <f t="shared" ref="D44" si="71">+B44+B40</f>
+      <c r="C44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="6">
+        <f>+B44+B40</f>
         <v>5528.6004082057752</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45">
-        <f t="shared" ref="B45" si="72">+B44*B38*D38</f>
-        <v>1.9097160618557568E-2</v>
-      </c>
-      <c r="C45" t="s">
+    <row r="45">
+      <c r="A45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D45">
-        <f t="shared" ref="D45" si="73">+D44*B38*D38</f>
+      <c r="B45" s="6">
+        <f>+B44*B38*D38</f>
+        <v>0.019097160618557568</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="6">
+        <f>+D44*B38*D38</f>
         <v>0.82099716061855743</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>0</v>
+    <row r="49" ht="17.25">
+      <c r="A49" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B50">
         <f>+B26</f>
-        <v>1.6499999999999998E-3</v>
-      </c>
-      <c r="C50" t="s">
+        <v>0.0016499999999999998</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D50">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>1</v>
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>3</v>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B52">
         <v>5400</v>
       </c>
-      <c r="C52" t="s">
-        <v>4</v>
+      <c r="C52" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D52">
-        <f t="shared" ref="D52" si="74">+B52/B51</f>
+        <f>+B52/B51</f>
         <v>5400</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>5</v>
+      <c r="E52" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="F52">
-        <f t="shared" ref="F52" si="75">1/D52</f>
-        <v>1.8518518518518518E-4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53">
-        <f t="shared" ref="B53" si="76">(B50*D50)/F52</f>
+        <f t="shared" si="2"/>
+        <v>0.00018518518518518518</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="6">
+        <f>(B50*D50)/F52</f>
         <v>0.89100000000000001</v>
       </c>
       <c r="K53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>17</v>
+    <row r="54">
+      <c r="A54" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B54">
-        <f t="shared" ref="B54" si="77">(+SUM(K54:Z54)+(B51*B53)^B51/(FACT(B51)*(1-B53)))^(-1)</f>
-        <v>9.935111870271135E-2</v>
+        <f>(+SUM(K54:Z54)+(B51*B53)^B51/(FACT(B51)*(1-B53)))^(-1)</f>
+        <v>0.09935111870271135</v>
       </c>
       <c r="K54">
-        <f t="shared" ref="K54" si="78">($B$3*$B$5)^K55/FACT(K55)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L54">
-        <f t="shared" ref="L54:M54" si="79">IF(L55&lt;&gt;0,(($B51*$B53)^L55/(FACT(L55))),0)</f>
+        <f t="shared" si="4"/>
         <v>0.89100000000000001</v>
       </c>
       <c r="M54">
-        <f t="shared" si="79"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N54">
-        <f t="shared" ref="N54" si="80">IF(N55&lt;&gt;0,(($B51*$B53)^N55/(FACT(N55))),0)</f>
+        <f>IF(N55&lt;&gt;0,(($B51*$B53)^N55/(FACT(N55))),0)</f>
         <v>0</v>
       </c>
       <c r="O54">
-        <f t="shared" ref="O54" si="81">IF(O55&lt;&gt;0,(($B51*$B53)^O55/(FACT(O55))),0)</f>
+        <f>IF(O55&lt;&gt;0,(($B51*$B53)^O55/(FACT(O55))),0)</f>
         <v>0</v>
       </c>
       <c r="P54">
-        <f t="shared" ref="P54" si="82">IF(P55&lt;&gt;0,(($B51*$B53)^P55/(FACT(P55))),0)</f>
+        <f>IF(P55&lt;&gt;0,(($B51*$B53)^P55/(FACT(P55))),0)</f>
         <v>0</v>
       </c>
       <c r="Q54">
-        <f t="shared" ref="Q54" si="83">IF(Q55&lt;&gt;0,(($B51*$B53)^Q55/(FACT(Q55))),0)</f>
+        <f>IF(Q55&lt;&gt;0,(($B51*$B53)^Q55/(FACT(Q55))),0)</f>
         <v>0</v>
       </c>
       <c r="R54">
-        <f t="shared" ref="R54" si="84">IF(R55&lt;&gt;0,(($B51*$B53)^R55/(FACT(R55))),0)</f>
+        <f>IF(R55&lt;&gt;0,(($B51*$B53)^R55/(FACT(R55))),0)</f>
         <v>0</v>
       </c>
       <c r="S54">
-        <f t="shared" ref="S54" si="85">IF(S55&lt;&gt;0,(($B51*$B53)^S55/(FACT(S55))),0)</f>
+        <f>IF(S55&lt;&gt;0,(($B51*$B53)^S55/(FACT(S55))),0)</f>
         <v>0</v>
       </c>
       <c r="T54">
-        <f t="shared" ref="T54" si="86">IF(T55&lt;&gt;0,(($B51*$B53)^T55/(FACT(T55))),0)</f>
+        <f>IF(T55&lt;&gt;0,(($B51*$B53)^T55/(FACT(T55))),0)</f>
         <v>0</v>
       </c>
       <c r="U54">
-        <f t="shared" ref="U54" si="87">IF(U55&lt;&gt;0,(($B51*$B53)^U55/(FACT(U55))),0)</f>
+        <f>IF(U55&lt;&gt;0,(($B51*$B53)^U55/(FACT(U55))),0)</f>
         <v>0</v>
       </c>
       <c r="V54">
-        <f t="shared" ref="V54" si="88">IF(V55&lt;&gt;0,(($B51*$B53)^V55/(FACT(V55))),0)</f>
+        <f>IF(V55&lt;&gt;0,(($B51*$B53)^V55/(FACT(V55))),0)</f>
         <v>0</v>
       </c>
       <c r="W54">
-        <f t="shared" ref="W54" si="89">IF(W55&lt;&gt;0,(($B51*$B53)^W55/(FACT(W55))),0)</f>
+        <f>IF(W55&lt;&gt;0,(($B51*$B53)^W55/(FACT(W55))),0)</f>
         <v>0</v>
       </c>
       <c r="X54">
-        <f t="shared" ref="X54" si="90">IF(X55&lt;&gt;0,(($B51*$B53)^X55/(FACT(X55))),0)</f>
+        <f>IF(X55&lt;&gt;0,(($B51*$B53)^X55/(FACT(X55))),0)</f>
         <v>0</v>
       </c>
       <c r="Y54">
-        <f t="shared" ref="Y54" si="91">IF(Y55&lt;&gt;0,(($B51*$B53)^Y55/(FACT(Y55))),0)</f>
+        <f>IF(Y55&lt;&gt;0,(($B51*$B53)^Y55/(FACT(Y55))),0)</f>
         <v>0</v>
       </c>
       <c r="Z54">
-        <f t="shared" ref="Z54" si="92">IF(Z55&lt;&gt;0,(($B51*$B53)^Z55/(FACT(Z55))),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>9</v>
+        <f>IF(Z55&lt;&gt;0,(($B51*$B53)^Z55/(FACT(Z55))),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B55">
         <f>+(B51*B53)^B51*B54/(FACT(B51)*(1-B53))</f>
@@ -1611,232 +1842,232 @@
         <v>1</v>
       </c>
       <c r="M55">
-        <f t="shared" ref="M55:Z55" si="93">+IF(AND($B51&gt;L55+1,L55+1&lt;&gt;1),L55+1,0)</f>
+        <f t="shared" ref="M55:Z55" si="8">+IF(AND($B51&gt;L55+1,L55+1&lt;&gt;1),L55+1,0)</f>
         <v>0</v>
       </c>
       <c r="N55">
-        <f t="shared" si="93"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O55">
-        <f t="shared" si="93"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P55">
-        <f t="shared" si="93"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="93"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R55">
-        <f t="shared" si="93"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S55">
-        <f t="shared" si="93"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T55">
-        <f t="shared" si="93"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U55">
-        <f t="shared" si="93"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V55">
-        <f t="shared" si="93"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W55">
-        <f t="shared" si="93"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X55">
-        <f t="shared" si="93"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y55">
-        <f t="shared" si="93"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z55">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56">
-        <f t="shared" ref="B56" si="94">+(B55*D52)/(1-B53)</f>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="6">
+        <f>+(B55*D52)/(1-B53)</f>
         <v>40233.81638971682</v>
       </c>
-      <c r="C56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56">
-        <f t="shared" ref="D56" si="95">+B56+B52</f>
+      <c r="C56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="6">
+        <f>+B56+B52</f>
         <v>45633.81638971682</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57">
-        <f t="shared" ref="B57" si="96">+B56*B50*D50</f>
+    <row r="57">
+      <c r="A57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="6">
+        <f>+B56*B50*D50</f>
         <v>6.6385797043032744</v>
       </c>
-      <c r="C57" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57">
-        <f t="shared" ref="D57" si="97">+D56*B50*D50</f>
+      <c r="C57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="6">
+        <f>+D56*B50*D50</f>
         <v>7.5295797043032753</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>0</v>
+    <row r="61" ht="17.25">
+      <c r="A61" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B62">
         <f>+B26</f>
-        <v>1.6499999999999998E-3</v>
-      </c>
-      <c r="C62" t="s">
+        <v>0.0016499999999999998</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D62">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>1</v>
+        <v>0.20000000000000001</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B63">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>3</v>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B64">
         <v>5400</v>
       </c>
-      <c r="C64" t="s">
-        <v>4</v>
+      <c r="C64" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D64">
-        <f t="shared" ref="D64" si="98">+B64/B63</f>
+        <f>+B64/B63</f>
         <v>1800</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>5</v>
+      <c r="E64" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="F64">
-        <f t="shared" ref="F64" si="99">1/D64</f>
-        <v>5.5555555555555556E-4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65">
-        <f t="shared" ref="B65" si="100">(B62*D62)/F64</f>
+        <f t="shared" si="2"/>
+        <v>0.00055555555555555556</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="6">
+        <f>(B62*D62)/F64</f>
         <v>0.59399999999999997</v>
       </c>
       <c r="K65" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>18</v>
+    <row r="66">
+      <c r="A66" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66" si="101">(+SUM(K66:Z66)+(B63*B65)^B63/(FACT(B63)*(1-B65)))^(-1)</f>
+        <f>(+SUM(K66:Z66)+(B63*B65)^B63/(FACT(B63)*(1-B65)))^(-1)</f>
         <v>0.14941554966889367</v>
       </c>
       <c r="K66">
-        <f t="shared" ref="K66" si="102">($B$3*$B$5)^K67/FACT(K67)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:M66" si="103">IF(L67&lt;&gt;0,(($B63*$B65)^L67/(FACT(L67))),0)</f>
+        <f t="shared" si="4"/>
         <v>1.782</v>
       </c>
       <c r="M66">
-        <f t="shared" si="103"/>
+        <f t="shared" si="4"/>
         <v>1.5877620000000001</v>
       </c>
       <c r="N66">
-        <f t="shared" ref="N66" si="104">IF(N67&lt;&gt;0,(($B63*$B65)^N67/(FACT(N67))),0)</f>
+        <f>IF(N67&lt;&gt;0,(($B63*$B65)^N67/(FACT(N67))),0)</f>
         <v>0</v>
       </c>
       <c r="O66">
-        <f t="shared" ref="O66" si="105">IF(O67&lt;&gt;0,(($B63*$B65)^O67/(FACT(O67))),0)</f>
+        <f>IF(O67&lt;&gt;0,(($B63*$B65)^O67/(FACT(O67))),0)</f>
         <v>0</v>
       </c>
       <c r="P66">
-        <f t="shared" ref="P66" si="106">IF(P67&lt;&gt;0,(($B63*$B65)^P67/(FACT(P67))),0)</f>
+        <f>IF(P67&lt;&gt;0,(($B63*$B65)^P67/(FACT(P67))),0)</f>
         <v>0</v>
       </c>
       <c r="Q66">
-        <f t="shared" ref="Q66" si="107">IF(Q67&lt;&gt;0,(($B63*$B65)^Q67/(FACT(Q67))),0)</f>
+        <f>IF(Q67&lt;&gt;0,(($B63*$B65)^Q67/(FACT(Q67))),0)</f>
         <v>0</v>
       </c>
       <c r="R66">
-        <f t="shared" ref="R66" si="108">IF(R67&lt;&gt;0,(($B63*$B65)^R67/(FACT(R67))),0)</f>
+        <f>IF(R67&lt;&gt;0,(($B63*$B65)^R67/(FACT(R67))),0)</f>
         <v>0</v>
       </c>
       <c r="S66">
-        <f t="shared" ref="S66" si="109">IF(S67&lt;&gt;0,(($B63*$B65)^S67/(FACT(S67))),0)</f>
+        <f>IF(S67&lt;&gt;0,(($B63*$B65)^S67/(FACT(S67))),0)</f>
         <v>0</v>
       </c>
       <c r="T66">
-        <f t="shared" ref="T66" si="110">IF(T67&lt;&gt;0,(($B63*$B65)^T67/(FACT(T67))),0)</f>
+        <f>IF(T67&lt;&gt;0,(($B63*$B65)^T67/(FACT(T67))),0)</f>
         <v>0</v>
       </c>
       <c r="U66">
-        <f t="shared" ref="U66" si="111">IF(U67&lt;&gt;0,(($B63*$B65)^U67/(FACT(U67))),0)</f>
+        <f>IF(U67&lt;&gt;0,(($B63*$B65)^U67/(FACT(U67))),0)</f>
         <v>0</v>
       </c>
       <c r="V66">
-        <f t="shared" ref="V66" si="112">IF(V67&lt;&gt;0,(($B63*$B65)^V67/(FACT(V67))),0)</f>
+        <f>IF(V67&lt;&gt;0,(($B63*$B65)^V67/(FACT(V67))),0)</f>
         <v>0</v>
       </c>
       <c r="W66">
-        <f t="shared" ref="W66" si="113">IF(W67&lt;&gt;0,(($B63*$B65)^W67/(FACT(W67))),0)</f>
+        <f>IF(W67&lt;&gt;0,(($B63*$B65)^W67/(FACT(W67))),0)</f>
         <v>0</v>
       </c>
       <c r="X66">
-        <f t="shared" ref="X66" si="114">IF(X67&lt;&gt;0,(($B63*$B65)^X67/(FACT(X67))),0)</f>
+        <f>IF(X67&lt;&gt;0,(($B63*$B65)^X67/(FACT(X67))),0)</f>
         <v>0</v>
       </c>
       <c r="Y66">
-        <f t="shared" ref="Y66" si="115">IF(Y67&lt;&gt;0,(($B63*$B65)^Y67/(FACT(Y67))),0)</f>
+        <f>IF(Y67&lt;&gt;0,(($B63*$B65)^Y67/(FACT(Y67))),0)</f>
         <v>0</v>
       </c>
       <c r="Z66">
-        <f t="shared" ref="Z66" si="116">IF(Z67&lt;&gt;0,(($B63*$B65)^Z67/(FACT(Z67))),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>9</v>
+        <f>IF(Z67&lt;&gt;0,(($B63*$B65)^Z67/(FACT(Z67))),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B67">
         <f>+(B63*B65)^B63*B66/(FACT(B63)*(1-B65))</f>
@@ -1849,232 +2080,232 @@
         <v>1</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:Z67" si="117">+IF(AND($B63&gt;L67+1,L67+1&lt;&gt;1),L67+1,0)</f>
+        <f t="shared" ref="M67:Z67" si="9">+IF(AND($B63&gt;L67+1,L67+1&lt;&gt;1),L67+1,0)</f>
         <v>2</v>
       </c>
       <c r="N67">
-        <f t="shared" si="117"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" si="117"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P67">
-        <f t="shared" si="117"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="117"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R67">
-        <f t="shared" si="117"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S67">
-        <f t="shared" si="117"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T67">
-        <f t="shared" si="117"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U67">
-        <f t="shared" si="117"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V67">
-        <f t="shared" si="117"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W67">
-        <f t="shared" si="117"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X67">
-        <f t="shared" si="117"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y67">
-        <f t="shared" si="117"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z67">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68">
-        <f t="shared" ref="B68" si="118">+(B67*D64)/(1-B65)</f>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="6">
+        <f>+(B67*D64)/(1-B65)</f>
         <v>1538.8209259260111</v>
       </c>
-      <c r="C68" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68">
-        <f t="shared" ref="D68" si="119">+B68+B64</f>
+      <c r="C68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="6">
+        <f>+B68+B64</f>
         <v>6938.8209259260111</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69">
-        <f t="shared" ref="B69" si="120">+B68*B62*D62</f>
+    <row r="69">
+      <c r="A69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="6">
+        <f>+B68*B62*D62</f>
         <v>0.50781090555558361</v>
       </c>
-      <c r="C69" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69">
-        <f t="shared" ref="D69" si="121">+D68*B62*D62</f>
+      <c r="C69" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="6">
+        <f>+D68*B62*D62</f>
         <v>2.2898109055555835</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>0</v>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B74">
         <f>+B26</f>
-        <v>1.6499999999999998E-3</v>
-      </c>
-      <c r="C74" t="s">
+        <v>0.0016499999999999998</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D74">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>1</v>
+        <v>0.29999999999999999</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B75">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>3</v>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B76">
         <v>5400</v>
       </c>
-      <c r="C76" t="s">
-        <v>4</v>
+      <c r="C76" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D76">
-        <f t="shared" ref="D76" si="122">+B76/B75</f>
+        <f>+B76/B75</f>
         <v>1800</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>5</v>
+      <c r="E76" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="F76">
-        <f t="shared" ref="F76" si="123">1/D76</f>
-        <v>5.5555555555555556E-4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77">
-        <f t="shared" ref="B77" si="124">(B74*D74)/F76</f>
+        <f t="shared" si="2"/>
+        <v>0.00055555555555555556</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="6">
+        <f>(B74*D74)/F76</f>
         <v>0.89099999999999979</v>
       </c>
       <c r="K77" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>19</v>
+    <row r="78">
+      <c r="A78" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B78">
-        <f t="shared" ref="B78" si="125">(+SUM(K78:Z78)+(B75*B77)^B75/(FACT(B75)*(1-B77)))^(-1)</f>
-        <v>2.7436420186509831E-2</v>
+        <f>(+SUM(K78:Z78)+(B75*B77)^B75/(FACT(B75)*(1-B77)))^(-1)</f>
+        <v>0.027436420186509831</v>
       </c>
       <c r="K78">
-        <f t="shared" ref="K78" si="126">($B$3*$B$5)^K79/FACT(K79)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L78">
-        <f t="shared" ref="L78:M78" si="127">IF(L79&lt;&gt;0,(($B75*$B77)^L79/(FACT(L79))),0)</f>
+        <f t="shared" si="4"/>
         <v>2.6729999999999992</v>
       </c>
       <c r="M78">
-        <f t="shared" si="127"/>
+        <f t="shared" si="4"/>
         <v>3.5724644999999979</v>
       </c>
       <c r="N78">
-        <f t="shared" ref="N78" si="128">IF(N79&lt;&gt;0,(($B75*$B77)^N79/(FACT(N79))),0)</f>
+        <f>IF(N79&lt;&gt;0,(($B75*$B77)^N79/(FACT(N79))),0)</f>
         <v>0</v>
       </c>
       <c r="O78">
-        <f t="shared" ref="O78" si="129">IF(O79&lt;&gt;0,(($B75*$B77)^O79/(FACT(O79))),0)</f>
+        <f>IF(O79&lt;&gt;0,(($B75*$B77)^O79/(FACT(O79))),0)</f>
         <v>0</v>
       </c>
       <c r="P78">
-        <f t="shared" ref="P78" si="130">IF(P79&lt;&gt;0,(($B75*$B77)^P79/(FACT(P79))),0)</f>
+        <f>IF(P79&lt;&gt;0,(($B75*$B77)^P79/(FACT(P79))),0)</f>
         <v>0</v>
       </c>
       <c r="Q78">
-        <f t="shared" ref="Q78" si="131">IF(Q79&lt;&gt;0,(($B75*$B77)^Q79/(FACT(Q79))),0)</f>
+        <f>IF(Q79&lt;&gt;0,(($B75*$B77)^Q79/(FACT(Q79))),0)</f>
         <v>0</v>
       </c>
       <c r="R78">
-        <f t="shared" ref="R78" si="132">IF(R79&lt;&gt;0,(($B75*$B77)^R79/(FACT(R79))),0)</f>
+        <f>IF(R79&lt;&gt;0,(($B75*$B77)^R79/(FACT(R79))),0)</f>
         <v>0</v>
       </c>
       <c r="S78">
-        <f t="shared" ref="S78" si="133">IF(S79&lt;&gt;0,(($B75*$B77)^S79/(FACT(S79))),0)</f>
+        <f>IF(S79&lt;&gt;0,(($B75*$B77)^S79/(FACT(S79))),0)</f>
         <v>0</v>
       </c>
       <c r="T78">
-        <f t="shared" ref="T78" si="134">IF(T79&lt;&gt;0,(($B75*$B77)^T79/(FACT(T79))),0)</f>
+        <f>IF(T79&lt;&gt;0,(($B75*$B77)^T79/(FACT(T79))),0)</f>
         <v>0</v>
       </c>
       <c r="U78">
-        <f t="shared" ref="U78" si="135">IF(U79&lt;&gt;0,(($B75*$B77)^U79/(FACT(U79))),0)</f>
+        <f>IF(U79&lt;&gt;0,(($B75*$B77)^U79/(FACT(U79))),0)</f>
         <v>0</v>
       </c>
       <c r="V78">
-        <f t="shared" ref="V78" si="136">IF(V79&lt;&gt;0,(($B75*$B77)^V79/(FACT(V79))),0)</f>
+        <f>IF(V79&lt;&gt;0,(($B75*$B77)^V79/(FACT(V79))),0)</f>
         <v>0</v>
       </c>
       <c r="W78">
-        <f t="shared" ref="W78" si="137">IF(W79&lt;&gt;0,(($B75*$B77)^W79/(FACT(W79))),0)</f>
+        <f>IF(W79&lt;&gt;0,(($B75*$B77)^W79/(FACT(W79))),0)</f>
         <v>0</v>
       </c>
       <c r="X78">
-        <f t="shared" ref="X78" si="138">IF(X79&lt;&gt;0,(($B75*$B77)^X79/(FACT(X79))),0)</f>
+        <f>IF(X79&lt;&gt;0,(($B75*$B77)^X79/(FACT(X79))),0)</f>
         <v>0</v>
       </c>
       <c r="Y78">
-        <f t="shared" ref="Y78" si="139">IF(Y79&lt;&gt;0,(($B75*$B77)^Y79/(FACT(Y79))),0)</f>
+        <f>IF(Y79&lt;&gt;0,(($B75*$B77)^Y79/(FACT(Y79))),0)</f>
         <v>0</v>
       </c>
       <c r="Z78">
-        <f t="shared" ref="Z78" si="140">IF(Z79&lt;&gt;0,(($B75*$B77)^Z79/(FACT(Z79))),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>9</v>
+        <f>IF(Z79&lt;&gt;0,(($B75*$B77)^Z79/(FACT(Z79))),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B79">
         <f>+(B75*B77)^B75*B78/(FACT(B75)*(1-B77))</f>
@@ -2087,232 +2318,232 @@
         <v>1</v>
       </c>
       <c r="M79">
-        <f t="shared" ref="M79:Z79" si="141">+IF(AND($B75&gt;L79+1,L79+1&lt;&gt;1),L79+1,0)</f>
+        <f t="shared" ref="M79:Z79" si="10">+IF(AND($B75&gt;L79+1,L79+1&lt;&gt;1),L79+1,0)</f>
         <v>2</v>
       </c>
       <c r="N79">
-        <f t="shared" si="141"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O79">
-        <f t="shared" si="141"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P79">
-        <f t="shared" si="141"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="141"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R79">
-        <f t="shared" si="141"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S79">
-        <f t="shared" si="141"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T79">
-        <f t="shared" si="141"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U79">
-        <f t="shared" si="141"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V79">
-        <f t="shared" si="141"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W79">
-        <f t="shared" si="141"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X79">
-        <f t="shared" si="141"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y79">
-        <f t="shared" si="141"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z79">
-        <f t="shared" si="141"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80">
-        <f t="shared" ref="B80" si="142">+(B79*D76)/(1-B77)</f>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="6">
+        <f>+(B79*D76)/(1-B77)</f>
         <v>13230.997291346835</v>
       </c>
-      <c r="C80" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80">
-        <f t="shared" ref="D80" si="143">+B80+B76</f>
+      <c r="C80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="6">
+        <f>+B80+B76</f>
         <v>18630.997291346837</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81">
-        <f t="shared" ref="B81" si="144">+B80*B74*D74</f>
+    <row r="81">
+      <c r="A81" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="6">
+        <f>+B80*B74*D74</f>
         <v>6.5493436592166825</v>
       </c>
-      <c r="C81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81">
-        <f t="shared" ref="D81" si="145">+D80*B74*D74</f>
+      <c r="C81" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="6">
+        <f>+D80*B74*D74</f>
         <v>9.2223436592166834</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>0</v>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B86">
         <f>+B2</f>
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="C86" t="s">
+        <v>0.0054999999999999997</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D86">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>1</v>
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>3</v>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B88">
         <v>900</v>
       </c>
-      <c r="C88" t="s">
-        <v>4</v>
+      <c r="C88" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D88">
-        <f t="shared" ref="D88" si="146">+B88/B87</f>
+        <f>+B88/B87</f>
         <v>900</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>5</v>
+      <c r="E88" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="F88">
-        <f t="shared" ref="F88" si="147">1/D88</f>
-        <v>1.1111111111111111E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89">
-        <f t="shared" ref="B89" si="148">(B86*D86)/F88</f>
+        <f t="shared" ref="F80:F88" si="11">1/D88</f>
+        <v>0.0011111111111111111</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="6">
+        <f>(B86*D86)/F88</f>
         <v>0.49500000000000005</v>
       </c>
       <c r="K89" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>20</v>
+    <row r="90">
+      <c r="A90" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B90">
-        <f t="shared" ref="B90" si="149">(+SUM(K90:Z90)+(B87*B89)^B87/(FACT(B87)*(1-B89)))^(-1)</f>
+        <f>(+SUM(K90:Z90)+(B87*B89)^B87/(FACT(B87)*(1-B89)))^(-1)</f>
         <v>0.40400808016160317</v>
       </c>
       <c r="K90">
-        <f t="shared" ref="K90" si="150">($B$3*$B$5)^K91/FACT(K91)</f>
+        <f t="shared" ref="K82:K90" si="12">($B$3*$B$5)^K91/FACT(K91)</f>
         <v>1</v>
       </c>
       <c r="L90">
-        <f t="shared" ref="L90:M90" si="151">IF(L91&lt;&gt;0,(($B87*$B89)^L91/(FACT(L91))),0)</f>
+        <f t="shared" ref="L82:M90" si="13">IF(L91&lt;&gt;0,(($B87*$B89)^L91/(FACT(L91))),0)</f>
         <v>0.49500000000000005</v>
       </c>
       <c r="M90">
-        <f t="shared" si="151"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N90">
-        <f t="shared" ref="N90" si="152">IF(N91&lt;&gt;0,(($B87*$B89)^N91/(FACT(N91))),0)</f>
+        <f>IF(N91&lt;&gt;0,(($B87*$B89)^N91/(FACT(N91))),0)</f>
         <v>0</v>
       </c>
       <c r="O90">
-        <f t="shared" ref="O90" si="153">IF(O91&lt;&gt;0,(($B87*$B89)^O91/(FACT(O91))),0)</f>
+        <f>IF(O91&lt;&gt;0,(($B87*$B89)^O91/(FACT(O91))),0)</f>
         <v>0</v>
       </c>
       <c r="P90">
-        <f t="shared" ref="P90" si="154">IF(P91&lt;&gt;0,(($B87*$B89)^P91/(FACT(P91))),0)</f>
+        <f>IF(P91&lt;&gt;0,(($B87*$B89)^P91/(FACT(P91))),0)</f>
         <v>0</v>
       </c>
       <c r="Q90">
-        <f t="shared" ref="Q90" si="155">IF(Q91&lt;&gt;0,(($B87*$B89)^Q91/(FACT(Q91))),0)</f>
+        <f>IF(Q91&lt;&gt;0,(($B87*$B89)^Q91/(FACT(Q91))),0)</f>
         <v>0</v>
       </c>
       <c r="R90">
-        <f t="shared" ref="R90" si="156">IF(R91&lt;&gt;0,(($B87*$B89)^R91/(FACT(R91))),0)</f>
+        <f>IF(R91&lt;&gt;0,(($B87*$B89)^R91/(FACT(R91))),0)</f>
         <v>0</v>
       </c>
       <c r="S90">
-        <f t="shared" ref="S90" si="157">IF(S91&lt;&gt;0,(($B87*$B89)^S91/(FACT(S91))),0)</f>
+        <f>IF(S91&lt;&gt;0,(($B87*$B89)^S91/(FACT(S91))),0)</f>
         <v>0</v>
       </c>
       <c r="T90">
-        <f t="shared" ref="T90" si="158">IF(T91&lt;&gt;0,(($B87*$B89)^T91/(FACT(T91))),0)</f>
+        <f>IF(T91&lt;&gt;0,(($B87*$B89)^T91/(FACT(T91))),0)</f>
         <v>0</v>
       </c>
       <c r="U90">
-        <f t="shared" ref="U90" si="159">IF(U91&lt;&gt;0,(($B87*$B89)^U91/(FACT(U91))),0)</f>
+        <f>IF(U91&lt;&gt;0,(($B87*$B89)^U91/(FACT(U91))),0)</f>
         <v>0</v>
       </c>
       <c r="V90">
-        <f t="shared" ref="V90" si="160">IF(V91&lt;&gt;0,(($B87*$B89)^V91/(FACT(V91))),0)</f>
+        <f>IF(V91&lt;&gt;0,(($B87*$B89)^V91/(FACT(V91))),0)</f>
         <v>0</v>
       </c>
       <c r="W90">
-        <f t="shared" ref="W90" si="161">IF(W91&lt;&gt;0,(($B87*$B89)^W91/(FACT(W91))),0)</f>
+        <f>IF(W91&lt;&gt;0,(($B87*$B89)^W91/(FACT(W91))),0)</f>
         <v>0</v>
       </c>
       <c r="X90">
-        <f t="shared" ref="X90" si="162">IF(X91&lt;&gt;0,(($B87*$B89)^X91/(FACT(X91))),0)</f>
+        <f>IF(X91&lt;&gt;0,(($B87*$B89)^X91/(FACT(X91))),0)</f>
         <v>0</v>
       </c>
       <c r="Y90">
-        <f t="shared" ref="Y90" si="163">IF(Y91&lt;&gt;0,(($B87*$B89)^Y91/(FACT(Y91))),0)</f>
+        <f>IF(Y91&lt;&gt;0,(($B87*$B89)^Y91/(FACT(Y91))),0)</f>
         <v>0</v>
       </c>
       <c r="Z90">
-        <f t="shared" ref="Z90" si="164">IF(Z91&lt;&gt;0,(($B87*$B89)^Z91/(FACT(Z91))),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>9</v>
+        <f>IF(Z91&lt;&gt;0,(($B87*$B89)^Z91/(FACT(Z91))),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B91">
         <f>+(B87*B89)^B87*B90/(FACT(B87)*(1-B89))</f>
@@ -2325,114 +2556,116 @@
         <v>1</v>
       </c>
       <c r="M91">
-        <f t="shared" ref="M91:Z91" si="165">+IF(AND($B87&gt;L91+1,L91+1&lt;&gt;1),L91+1,0)</f>
+        <f t="shared" ref="M91:Z91" si="14">+IF(AND($B87&gt;L91+1,L91+1&lt;&gt;1),L91+1,0)</f>
         <v>0</v>
       </c>
       <c r="N91">
-        <f t="shared" si="165"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O91">
-        <f t="shared" si="165"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P91">
-        <f t="shared" si="165"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="165"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R91">
-        <f t="shared" si="165"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S91">
-        <f t="shared" si="165"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T91">
-        <f t="shared" si="165"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U91">
-        <f t="shared" si="165"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V91">
-        <f t="shared" si="165"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W91">
-        <f t="shared" si="165"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X91">
-        <f t="shared" si="165"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y91">
-        <f t="shared" si="165"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z91">
-        <f t="shared" si="165"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B92">
-        <f t="shared" ref="B92" si="166">+(B91*D88)/(1-B89)</f>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="6">
+        <f>+(B91*D88)/(1-B89)</f>
         <v>705.75668939121385</v>
       </c>
-      <c r="C92" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92">
-        <f t="shared" ref="D92" si="167">+B92+B88</f>
+      <c r="C92" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="6">
+        <f>+B92+B88</f>
         <v>1605.756689391214</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B93">
-        <f t="shared" ref="B93" si="168">+B92*B86*D86</f>
+    <row r="93">
+      <c r="A93" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="6">
+        <f>+B92*B86*D86</f>
         <v>0.3881661791651676</v>
       </c>
-      <c r="C93" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93">
-        <f t="shared" ref="D93" si="169">+D92*B86*D86</f>
+      <c r="C93" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="6">
+        <f>+D92*B86*D86</f>
         <v>0.88316617916516771</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="1"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="1"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="1"/>
+    <row r="100">
+      <c r="E100" s="10"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="10"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="10"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="10"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="10"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/reports e riferimenti/MSQ.xlsx
+++ b/reports e riferimenti/MSQ.xlsx
@@ -724,7 +724,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="71" workbookViewId="0">
+    <sheetView topLeftCell="A82" zoomScale="71" workbookViewId="0">
       <selection activeCell="D87" activeCellId="0" sqref="D87"/>
     </sheetView>
   </sheetViews>
@@ -1249,21 +1249,21 @@
         <v>4</v>
       </c>
       <c r="B28">
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D28">
         <f>+B28/B27</f>
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F28">
         <f t="shared" si="2"/>
-        <v>0.00055555555555555556</v>
+        <v>0.00083333333333333339</v>
       </c>
     </row>
     <row r="29">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B29" s="6">
         <f>(B26*D26)/F28</f>
-        <v>0.89099999999999979</v>
+        <v>0.59399999999999986</v>
       </c>
       <c r="K29" t="s">
         <v>8</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B30">
         <f>(+SUM(K30:Z30)+(B27*B29)^B27/(FACT(B27)*(1-B29)))^(-1)</f>
-        <v>0.027436420186509831</v>
+        <v>0.14941554966889375</v>
       </c>
       <c r="K30">
         <f t="shared" si="3"/>
@@ -1292,11 +1292,11 @@
       </c>
       <c r="L30">
         <f t="shared" si="4"/>
-        <v>2.6729999999999992</v>
+        <v>1.7819999999999996</v>
       </c>
       <c r="M30">
         <f t="shared" si="4"/>
-        <v>3.5724644999999979</v>
+        <v>1.5877619999999992</v>
       </c>
       <c r="N30">
         <f>IF(N31&lt;&gt;0,(($B27*$B29)^N31/(FACT(N31))),0)</f>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B31">
         <f>+(B27*B29)^B27*B30/(FACT(B27)*(1-B29))</f>
-        <v>0.80121039153155982</v>
+        <v>0.34708960884775569</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1428,14 +1428,14 @@
       </c>
       <c r="B32" s="6">
         <f>+(B31*D28)/(1-B29)</f>
-        <v>13230.997291346835</v>
+        <v>1025.8806172840066</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="6">
         <f>+B32+B28</f>
-        <v>18630.997291346837</v>
+        <v>4625.8806172840068</v>
       </c>
     </row>
     <row r="33">
@@ -1444,14 +1444,14 @@
       </c>
       <c r="B33" s="6">
         <f>+B32*B26*D26</f>
-        <v>6.5493436592166825</v>
+        <v>0.50781090555558317</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="6">
         <f>+D32*B26*D26</f>
-        <v>9.2223436592166834</v>
+        <v>2.2898109055555831</v>
       </c>
     </row>
     <row r="37" ht="17.25">
@@ -1471,7 +1471,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>0.089999999999999997</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="B41" s="6">
         <f>(B38*D38)/F40</f>
-        <v>0.26729999999999998</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="K41" t="s">
         <v>8</v>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="B42">
         <f>(+SUM(K42:Z42)+(B39*B41)^B39/(FACT(B39)*(1-B41)))^(-1)</f>
-        <v>0.44628556001530151</v>
+        <v>0.40722614982736338</v>
       </c>
       <c r="K42">
         <f t="shared" si="3"/>
@@ -1530,11 +1530,11 @@
       </c>
       <c r="L42">
         <f t="shared" si="4"/>
-        <v>0.80189999999999995</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="M42">
         <f t="shared" si="4"/>
-        <v>0.32152180499999994</v>
+        <v>0.39694050000000003</v>
       </c>
       <c r="N42">
         <f>IF(N43&lt;&gt;0,(($B39*$B41)^N43/(FACT(N43))),0)</f>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="B43">
         <f>+(B39*B41)^B39*B42/(FACT(B39)*(1-B41))</f>
-        <v>0.052347510606872927</v>
+        <v>0.068290799150907425</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -1666,14 +1666,14 @@
       </c>
       <c r="B44" s="6">
         <f>+(B43*D40)/(1-B41)</f>
-        <v>128.6004082057749</v>
+        <v>174.85553125410149</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="6">
         <f>+B44+B40</f>
-        <v>5528.6004082057752</v>
+        <v>5574.8555312541012</v>
       </c>
     </row>
     <row r="45">
@@ -1682,14 +1682,14 @@
       </c>
       <c r="B45" s="6">
         <f>+B44*B38*D38</f>
-        <v>0.019097160618557568</v>
+        <v>0.028851162656926745</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="6">
         <f>+D44*B38*D38</f>
-        <v>0.82099716061855743</v>
+        <v>0.91985116265692657</v>
       </c>
     </row>
     <row r="49" ht="17.25">
@@ -2168,7 +2168,7 @@
         <v>2.2898109055555835</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" ht="17.25">
       <c r="A73" s="1" t="s">
         <v>25</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>9.2223436592166834</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" ht="17.25">
       <c r="A85" s="1" t="s">
         <v>27</v>
       </c>
@@ -2439,21 +2439,21 @@
         <v>4</v>
       </c>
       <c r="B88">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D88">
         <f>+B88/B87</f>
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F88">
         <f t="shared" ref="F80:F88" si="11">1/D88</f>
-        <v>0.0011111111111111111</v>
+        <v>0.00083333333333333339</v>
       </c>
     </row>
     <row r="89">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="B89" s="6">
         <f>(B86*D86)/F88</f>
-        <v>0.49500000000000005</v>
+        <v>0.66000000000000003</v>
       </c>
       <c r="K89" t="s">
         <v>8</v>
@@ -2472,17 +2472,13 @@
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B90">
-        <f>(+SUM(K90:Z90)+(B87*B89)^B87/(FACT(B87)*(1-B89)))^(-1)</f>
-        <v>0.40400808016160317</v>
-      </c>
       <c r="K90">
         <f t="shared" ref="K82:K90" si="12">($B$3*$B$5)^K91/FACT(K91)</f>
         <v>1</v>
       </c>
       <c r="L90">
         <f t="shared" ref="L82:M90" si="13">IF(L91&lt;&gt;0,(($B87*$B89)^L91/(FACT(L91))),0)</f>
-        <v>0.49500000000000005</v>
+        <v>0.66000000000000003</v>
       </c>
       <c r="M90">
         <f t="shared" si="13"/>
@@ -2547,7 +2543,7 @@
       </c>
       <c r="B91">
         <f>+(B87*B89)^B87*B90/(FACT(B87)*(1-B89))</f>
-        <v>0.39600792015840325</v>
+        <v>0</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -2617,15 +2613,15 @@
         <v>11</v>
       </c>
       <c r="B92" s="6">
-        <f>+(B91*D88)/(1-B89)</f>
-        <v>705.75668939121385</v>
+        <f>B89*B88/(1-B89)</f>
+        <v>2329.4117647058824</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="6">
         <f>+B92+B88</f>
-        <v>1605.756689391214</v>
+        <v>3529.4117647058824</v>
       </c>
     </row>
     <row r="93">
@@ -2633,15 +2629,15 @@
         <v>13</v>
       </c>
       <c r="B93" s="6">
-        <f>+B92*B86*D86</f>
-        <v>0.3881661791651676</v>
+        <f>B92*B86*D86</f>
+        <v>1.2811764705882354</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="6">
         <f>+D92*B86*D86</f>
-        <v>0.88316617916516771</v>
+        <v>1.9411764705882353</v>
       </c>
     </row>
     <row r="100">
